--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_remove/rem2/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_remove/rem2/17/word_level_predictions_17.xlsx
@@ -1149,393 +1149,393 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_E</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>(Airport</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K14" t="b">
-        <v>1</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" t="inlineStr">
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>(Airport</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>7</v>
-      </c>
-      <c r="E15" t="inlineStr">
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F16" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K15" t="b">
-        <v>1</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" t="inlineStr">
+      <c r="G16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Class</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>8</v>
-      </c>
-      <c r="E16" t="inlineStr">
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>Airspace</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F17" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I16" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K16" t="b">
-        <v>1</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" t="inlineStr">
+      <c r="G17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Airspace</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>9</v>
-      </c>
-      <c r="E17" t="inlineStr">
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>Unpaved</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F18" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I17" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K17" t="b">
-        <v>1</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" t="inlineStr">
+      <c r="G18" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Unpaved</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>10</v>
-      </c>
-      <c r="E18" t="inlineStr">
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>Airports</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I18" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K18" t="b">
-        <v>1</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>1</v>
-      </c>
-      <c r="B19" t="inlineStr">
+      <c r="G19" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Airports</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>11</v>
-      </c>
-      <c r="E19" t="inlineStr">
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>Power</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F20" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I19" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K19" t="b">
-        <v>1</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>1</v>
-      </c>
-      <c r="B20" t="inlineStr">
+      <c r="G20" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Power</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>12</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I20" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K20" t="b">
-        <v>1</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" s="2" t="inlineStr">
         <is>
           <t>Plant)</t>
         </is>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E21" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I21" t="b">
-        <v>1</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K21" t="b">
-        <v>1</v>
-      </c>
-      <c r="L21" t="inlineStr">
+      <c r="G21" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G42" t="b">
@@ -2629,213 +2629,213 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
+      <c r="A43" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C43" s="2" t="inlineStr">
         <is>
           <t>Settings</t>
         </is>
       </c>
-      <c r="D43" t="n">
+      <c r="D43" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I43" t="b">
-        <v>1</v>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K43" t="b">
-        <v>1</v>
-      </c>
-      <c r="L43" t="inlineStr">
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
+      <c r="A44" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C44" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D44" t="n">
+      <c r="D44" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G44" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I44" t="b">
-        <v>1</v>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K44" t="b">
-        <v>1</v>
-      </c>
-      <c r="L44" t="inlineStr">
+      <c r="E44" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F44" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L44" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
+      <c r="A45" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C45" s="2" t="inlineStr">
         <is>
           <t>update</t>
         </is>
       </c>
-      <c r="D45" t="n">
+      <c r="D45" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G45" t="b">
-        <v>1</v>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I45" t="b">
-        <v>1</v>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K45" t="b">
-        <v>1</v>
-      </c>
-      <c r="L45" t="inlineStr">
+      <c r="E45" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F45" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G45" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K45" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L45" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
+      <c r="A46" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C46" s="2" t="inlineStr">
         <is>
           <t>firmware</t>
         </is>
       </c>
-      <c r="D46" t="n">
+      <c r="D46" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="E46" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="F46" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G46" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K46" t="b">
-        <v>1</v>
-      </c>
-      <c r="L46" t="inlineStr">
+      <c r="G46" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L46" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -3073,7 +3073,7 @@
       </c>
       <c r="F51" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G51" s="2" t="b">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="L51" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -3125,7 +3125,7 @@
       </c>
       <c r="F52" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G52" s="2" t="b">
@@ -3149,7 +3149,7 @@
       </c>
       <c r="L52" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -3229,7 +3229,7 @@
       </c>
       <c r="F54" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G54" s="2" t="b">
@@ -3253,7 +3253,7 @@
       </c>
       <c r="L54" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -3281,7 +3281,7 @@
       </c>
       <c r="F55" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G55" s="2" t="b">
@@ -3305,7 +3305,7 @@
       </c>
       <c r="L55" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="F56" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G56" s="2" t="b">
@@ -3357,7 +3357,7 @@
       </c>
       <c r="L56" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -4593,11 +4593,11 @@
         </is>
       </c>
       <c r="I80" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K80" s="2" t="b">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G81" t="b">
@@ -4657,7 +4657,7 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -8533,7 +8533,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G156" t="b">
@@ -8557,57 +8557,57 @@
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="n">
+      <c r="A157" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B157" t="inlineStr">
+      <c r="B157" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C157" t="inlineStr">
+      <c r="C157" s="2" t="inlineStr">
         <is>
           <t>Detected</t>
         </is>
       </c>
-      <c r="D157" t="n">
+      <c r="D157" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E157" t="inlineStr">
+      <c r="E157" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
+      <c r="F157" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G157" t="b">
-        <v>1</v>
-      </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I157" t="b">
-        <v>1</v>
-      </c>
-      <c r="J157" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K157" t="b">
-        <v>1</v>
-      </c>
-      <c r="L157" t="inlineStr">
+      <c r="G157" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H157" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I157" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J157" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K157" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L157" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -10642,158 +10642,158 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="2" t="n">
+      <c r="A197" t="n">
         <v>19</v>
       </c>
-      <c r="B197" s="2" t="inlineStr">
+      <c r="B197" t="inlineStr">
         <is>
           <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C197" s="2" t="inlineStr">
+      <c r="C197" t="inlineStr">
         <is>
           <t>Running</t>
         </is>
       </c>
-      <c r="D197" s="2" t="n">
+      <c r="D197" t="n">
         <v>0</v>
       </c>
-      <c r="E197" s="2" t="inlineStr">
+      <c r="E197" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F197" s="2" t="inlineStr">
+      <c r="F197" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G197" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H197" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I197" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J197" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K197" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L197" s="2" t="inlineStr">
+      <c r="G197" t="b">
+        <v>1</v>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I197" t="b">
+        <v>1</v>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K197" t="b">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="2" t="n">
+      <c r="A198" t="n">
         <v>19</v>
       </c>
-      <c r="B198" s="2" t="inlineStr">
+      <c r="B198" t="inlineStr">
         <is>
           <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C198" s="2" t="inlineStr">
+      <c r="C198" t="inlineStr">
         <is>
           <t>Flight</t>
         </is>
       </c>
-      <c r="D198" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E198" s="2" t="inlineStr">
+      <c r="D198" t="n">
+        <v>1</v>
+      </c>
+      <c r="E198" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F198" s="2" t="inlineStr">
+      <c r="F198" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G198" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H198" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I198" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J198" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K198" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L198" s="2" t="inlineStr">
+      <c r="G198" t="b">
+        <v>1</v>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I198" t="b">
+        <v>1</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K198" t="b">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="2" t="n">
+      <c r="A199" t="n">
         <v>19</v>
       </c>
-      <c r="B199" s="2" t="inlineStr">
+      <c r="B199" t="inlineStr">
         <is>
           <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C199" s="2" t="inlineStr">
+      <c r="C199" t="inlineStr">
         <is>
           <t>Simulator</t>
         </is>
       </c>
-      <c r="D199" s="2" t="n">
+      <c r="D199" t="n">
         <v>2</v>
       </c>
-      <c r="E199" s="2" t="inlineStr">
+      <c r="E199" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F199" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G199" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H199" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I199" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J199" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K199" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L199" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G199" t="b">
+        <v>1</v>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I199" t="b">
+        <v>1</v>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K199" t="b">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -20557,11 +20557,11 @@
         </is>
       </c>
       <c r="I387" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J387" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K387" s="2" t="b">
@@ -20609,11 +20609,11 @@
         </is>
       </c>
       <c r="I388" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J388" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K388" s="2" t="b">
@@ -20649,7 +20649,7 @@
       </c>
       <c r="F389" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G389" s="2" t="b">
@@ -20661,11 +20661,11 @@
         </is>
       </c>
       <c r="I389" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J389" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K389" s="2" t="b">
@@ -20673,7 +20673,7 @@
       </c>
       <c r="L389" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -20713,11 +20713,11 @@
         </is>
       </c>
       <c r="I390" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J390" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K390" s="2" t="b">
@@ -23665,7 +23665,7 @@
       </c>
       <c r="F447" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G447" s="2" t="b">
@@ -23677,11 +23677,11 @@
         </is>
       </c>
       <c r="I447" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J447" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K447" s="2" t="b">
@@ -23689,7 +23689,7 @@
       </c>
       <c r="L447" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -23729,11 +23729,11 @@
         </is>
       </c>
       <c r="I448" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J448" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K448" s="2" t="b">
@@ -23781,11 +23781,11 @@
         </is>
       </c>
       <c r="I449" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J449" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K449" s="2" t="b">
@@ -23833,11 +23833,11 @@
         </is>
       </c>
       <c r="I450" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J450" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K450" s="2" t="b">

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_remove/rem2/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_remove/rem2/17/word_level_predictions_17.xlsx
@@ -1149,393 +1149,393 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>(Airport</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>7</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>8</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Airspace</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>9</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Unpaved</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>10</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K18" t="b">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Airports</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>11</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K19" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Power</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>12</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Plant)</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>13</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K14" t="b">
-        <v>1</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" s="2" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>(Airport</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>Class</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" s="2" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>Airspace</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" s="2" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>Unpaved</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B19" s="2" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>Airports</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>Power</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L20" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>Plant)</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L21" s="2" t="inlineStr">
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K21" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -2605,237 +2605,237 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I42" t="b">
+        <v>1</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K42" t="b">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>3</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Settings</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>7</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I43" t="b">
+        <v>1</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K43" t="b">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>3</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>8</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I44" t="b">
+        <v>1</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K44" t="b">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>3</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>update</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>9</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I45" t="b">
+        <v>1</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K45" t="b">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>3</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>firmware</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>10</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G42" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I42" t="b">
-        <v>1</v>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K42" t="b">
-        <v>1</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B43" s="2" t="inlineStr">
-        <is>
-          <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
-        </is>
-      </c>
-      <c r="C43" s="2" t="inlineStr">
-        <is>
-          <t>Settings</t>
-        </is>
-      </c>
-      <c r="D43" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E43" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F43" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G43" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I43" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K43" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L43" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B44" s="2" t="inlineStr">
-        <is>
-          <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
-        </is>
-      </c>
-      <c r="C44" s="2" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
-      <c r="D44" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E44" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F44" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G44" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I44" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J44" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K44" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L44" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B45" s="2" t="inlineStr">
-        <is>
-          <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
-        </is>
-      </c>
-      <c r="C45" s="2" t="inlineStr">
-        <is>
-          <t>update</t>
-        </is>
-      </c>
-      <c r="D45" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E45" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F45" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G45" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H45" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I45" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J45" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K45" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L45" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B46" s="2" t="inlineStr">
-        <is>
-          <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
-        </is>
-      </c>
-      <c r="C46" s="2" t="inlineStr">
-        <is>
-          <t>firmware</t>
-        </is>
-      </c>
-      <c r="D46" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E46" s="2" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F46" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G46" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I46" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K46" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L46" s="2" t="inlineStr">
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I46" t="b">
+        <v>1</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K46" t="b">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -3073,7 +3073,7 @@
       </c>
       <c r="F51" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G51" s="2" t="b">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="L51" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -3125,7 +3125,7 @@
       </c>
       <c r="F52" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G52" s="2" t="b">
@@ -3149,7 +3149,7 @@
       </c>
       <c r="L52" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3229,7 +3229,7 @@
       </c>
       <c r="F54" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G54" s="2" t="b">
@@ -3253,7 +3253,7 @@
       </c>
       <c r="L54" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3281,7 +3281,7 @@
       </c>
       <c r="F55" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G55" s="2" t="b">
@@ -3305,7 +3305,7 @@
       </c>
       <c r="L55" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="F56" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G56" s="2" t="b">
@@ -3357,7 +3357,7 @@
       </c>
       <c r="L56" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4593,11 +4593,11 @@
         </is>
       </c>
       <c r="I80" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K80" s="2" t="b">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G81" t="b">
@@ -4657,7 +4657,7 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -8533,81 +8533,81 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G156" t="b">
+        <v>1</v>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I156" t="b">
+        <v>1</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K156" t="b">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>15</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Strong Interference Detected Be careful when flying long distances .</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Detected</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>2</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G156" t="b">
-        <v>1</v>
-      </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I156" t="b">
-        <v>1</v>
-      </c>
-      <c r="J156" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K156" t="b">
-        <v>1</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B157" s="2" t="inlineStr">
-        <is>
-          <t>Strong Interference Detected Be careful when flying long distances .</t>
-        </is>
-      </c>
-      <c r="C157" s="2" t="inlineStr">
-        <is>
-          <t>Detected</t>
-        </is>
-      </c>
-      <c r="D157" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E157" s="2" t="inlineStr">
+      <c r="F157" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F157" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G157" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H157" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I157" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J157" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K157" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L157" s="2" t="inlineStr">
+      <c r="G157" t="b">
+        <v>1</v>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I157" t="b">
+        <v>1</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K157" t="b">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -10642,158 +10642,158 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="n">
+      <c r="A197" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B197" t="inlineStr">
+      <c r="B197" s="2" t="inlineStr">
         <is>
           <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C197" t="inlineStr">
+      <c r="C197" s="2" t="inlineStr">
         <is>
           <t>Running</t>
         </is>
       </c>
-      <c r="D197" t="n">
+      <c r="D197" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E197" t="inlineStr">
+      <c r="E197" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F197" t="inlineStr">
+      <c r="F197" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G197" t="b">
-        <v>1</v>
-      </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I197" t="b">
-        <v>1</v>
-      </c>
-      <c r="J197" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K197" t="b">
-        <v>1</v>
-      </c>
-      <c r="L197" t="inlineStr">
+      <c r="G197" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H197" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I197" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J197" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K197" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L197" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="n">
+      <c r="A198" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B198" t="inlineStr">
+      <c r="B198" s="2" t="inlineStr">
         <is>
           <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C198" t="inlineStr">
+      <c r="C198" s="2" t="inlineStr">
         <is>
           <t>Flight</t>
         </is>
       </c>
-      <c r="D198" t="n">
-        <v>1</v>
-      </c>
-      <c r="E198" t="inlineStr">
+      <c r="D198" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E198" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
+      <c r="F198" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G198" t="b">
-        <v>1</v>
-      </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I198" t="b">
-        <v>1</v>
-      </c>
-      <c r="J198" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K198" t="b">
-        <v>1</v>
-      </c>
-      <c r="L198" t="inlineStr">
+      <c r="G198" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H198" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I198" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J198" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K198" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L198" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="n">
+      <c r="A199" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B199" t="inlineStr">
+      <c r="B199" s="2" t="inlineStr">
         <is>
           <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C199" t="inlineStr">
+      <c r="C199" s="2" t="inlineStr">
         <is>
           <t>Simulator</t>
         </is>
       </c>
-      <c r="D199" t="n">
+      <c r="D199" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E199" t="inlineStr">
+      <c r="E199" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G199" t="b">
-        <v>1</v>
-      </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I199" t="b">
-        <v>1</v>
-      </c>
-      <c r="J199" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K199" t="b">
-        <v>1</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F199" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G199" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H199" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I199" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J199" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K199" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L199" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -20557,11 +20557,11 @@
         </is>
       </c>
       <c r="I387" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J387" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K387" s="2" t="b">
@@ -20609,11 +20609,11 @@
         </is>
       </c>
       <c r="I388" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J388" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K388" s="2" t="b">
@@ -20649,7 +20649,7 @@
       </c>
       <c r="F389" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G389" s="2" t="b">
@@ -20661,11 +20661,11 @@
         </is>
       </c>
       <c r="I389" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J389" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K389" s="2" t="b">
@@ -20673,7 +20673,7 @@
       </c>
       <c r="L389" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -20713,11 +20713,11 @@
         </is>
       </c>
       <c r="I390" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J390" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K390" s="2" t="b">
@@ -23665,7 +23665,7 @@
       </c>
       <c r="F447" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G447" s="2" t="b">
@@ -23677,11 +23677,11 @@
         </is>
       </c>
       <c r="I447" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J447" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K447" s="2" t="b">
@@ -23689,7 +23689,7 @@
       </c>
       <c r="L447" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -23729,11 +23729,11 @@
         </is>
       </c>
       <c r="I448" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J448" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K448" s="2" t="b">
@@ -23781,11 +23781,11 @@
         </is>
       </c>
       <c r="I449" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J449" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K449" s="2" t="b">
@@ -23833,11 +23833,11 @@
         </is>
       </c>
       <c r="I450" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J450" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K450" s="2" t="b">
